--- a/Documentation/Usecases/UseCase Bewertung.xlsx
+++ b/Documentation/Usecases/UseCase Bewertung.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18915" windowHeight="11310"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25400" windowHeight="15560"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -162,11 +167,11 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -175,14 +180,14 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -191,12 +196,12 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -205,17 +210,17 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -223,7 +228,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -232,11 +237,11 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -244,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -256,6 +261,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -559,41 +565,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="4" ySplit="15" topLeftCell="J16" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="8"/>
-    <col min="3" max="3" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="8"/>
+    <col min="3" max="3" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="15" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="23" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="15" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="7"/>
       <c r="C1" t="s">
@@ -669,258 +678,908 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" s="2" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2">
+        <v>9</v>
+      </c>
+      <c r="J2" s="2">
+        <v>5</v>
+      </c>
+      <c r="K2" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" s="4" customFormat="1">
       <c r="A3" s="3"/>
       <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="4">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4">
+        <v>4</v>
+      </c>
+      <c r="E3" s="4">
+        <v>8</v>
+      </c>
+      <c r="F3" s="11">
+        <v>3</v>
+      </c>
+      <c r="G3" s="11">
+        <v>6</v>
+      </c>
+      <c r="H3" s="11">
+        <v>6</v>
+      </c>
+      <c r="I3" s="11">
+        <v>8</v>
+      </c>
+      <c r="J3" s="11">
+        <v>6</v>
+      </c>
+      <c r="K3" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" s="4" customFormat="1">
       <c r="A4" s="3"/>
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="4">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="4">
+        <v>6</v>
+      </c>
+      <c r="F4" s="11">
+        <v>3</v>
+      </c>
+      <c r="G4" s="11">
+        <v>7</v>
+      </c>
+      <c r="H4" s="11">
+        <v>3</v>
+      </c>
+      <c r="I4" s="11">
+        <v>8</v>
+      </c>
+      <c r="J4" s="11">
+        <v>7</v>
+      </c>
+      <c r="K4" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" s="4" customFormat="1">
       <c r="A5" s="3"/>
       <c r="B5" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="4">
+        <v>2</v>
+      </c>
+      <c r="D5" s="11">
+        <v>2</v>
+      </c>
+      <c r="E5" s="11">
+        <v>7</v>
+      </c>
+      <c r="F5" s="11">
+        <v>1</v>
+      </c>
+      <c r="G5" s="11">
+        <v>3</v>
+      </c>
+      <c r="H5" s="11">
+        <v>7</v>
+      </c>
+      <c r="I5" s="11">
+        <v>10</v>
+      </c>
+      <c r="J5" s="11">
+        <v>4</v>
+      </c>
+      <c r="K5" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" s="4" customFormat="1">
       <c r="A6" s="3"/>
       <c r="B6" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="11">
+        <v>5</v>
+      </c>
+      <c r="D6" s="11">
+        <v>5</v>
+      </c>
+      <c r="E6" s="11">
+        <v>6</v>
+      </c>
+      <c r="F6" s="11">
+        <v>3</v>
+      </c>
+      <c r="G6" s="11">
+        <v>5</v>
+      </c>
+      <c r="H6" s="11">
+        <v>5</v>
+      </c>
+      <c r="I6" s="11">
+        <v>9</v>
+      </c>
+      <c r="J6" s="11">
+        <v>5</v>
+      </c>
+      <c r="K6" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" s="6" customFormat="1" ht="15" thickBot="1">
       <c r="A7" s="5"/>
       <c r="B7" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="6">
+        <v>3</v>
+      </c>
+      <c r="D7" s="6">
+        <v>3</v>
+      </c>
+      <c r="E7" s="6">
+        <v>7</v>
+      </c>
+      <c r="F7" s="6">
+        <v>2</v>
+      </c>
+      <c r="G7" s="6">
+        <v>5</v>
+      </c>
+      <c r="H7" s="6">
+        <v>5</v>
+      </c>
+      <c r="I7" s="6">
+        <v>8</v>
+      </c>
+      <c r="J7" s="6">
+        <v>8</v>
+      </c>
+      <c r="K7" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" s="4" customFormat="1">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="K8"/>
-    </row>
-    <row r="9" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="11">
+        <v>10</v>
+      </c>
+      <c r="D8" s="11">
+        <v>5</v>
+      </c>
+      <c r="E8" s="11">
+        <v>3</v>
+      </c>
+      <c r="F8" s="11">
+        <v>4</v>
+      </c>
+      <c r="G8" s="11">
+        <v>3</v>
+      </c>
+      <c r="H8" s="11">
+        <v>4</v>
+      </c>
+      <c r="I8" s="11">
+        <v>4</v>
+      </c>
+      <c r="J8" s="11">
+        <v>6</v>
+      </c>
+      <c r="K8" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" s="4" customFormat="1">
       <c r="A9" s="3"/>
       <c r="B9" s="8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="11">
+        <v>10</v>
+      </c>
+      <c r="D9" s="11">
+        <v>7</v>
+      </c>
+      <c r="E9" s="11">
+        <v>4</v>
+      </c>
+      <c r="F9" s="11">
+        <v>5</v>
+      </c>
+      <c r="G9" s="11">
+        <v>2</v>
+      </c>
+      <c r="H9" s="11">
+        <v>8</v>
+      </c>
+      <c r="I9" s="11">
+        <v>5</v>
+      </c>
+      <c r="J9" s="11">
+        <v>8</v>
+      </c>
+      <c r="K9" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" s="4" customFormat="1">
       <c r="A10" s="3"/>
       <c r="B10" s="8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="11">
+        <v>9</v>
+      </c>
+      <c r="D10" s="11">
+        <v>5</v>
+      </c>
+      <c r="E10" s="11">
+        <v>2</v>
+      </c>
+      <c r="F10" s="11">
+        <v>4</v>
+      </c>
+      <c r="G10" s="11">
+        <v>1</v>
+      </c>
+      <c r="H10" s="11">
+        <v>3</v>
+      </c>
+      <c r="I10" s="11">
+        <v>7</v>
+      </c>
+      <c r="J10" s="11">
+        <v>8</v>
+      </c>
+      <c r="K10" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" s="4" customFormat="1">
       <c r="A11" s="3"/>
       <c r="B11" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="11">
+        <v>10</v>
+      </c>
+      <c r="D11" s="11">
+        <v>5</v>
+      </c>
+      <c r="E11" s="11">
+        <v>6</v>
+      </c>
+      <c r="F11" s="11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="11">
+        <v>2</v>
+      </c>
+      <c r="H11" s="11">
+        <v>5</v>
+      </c>
+      <c r="I11" s="11">
+        <v>5</v>
+      </c>
+      <c r="J11" s="11">
+        <v>5</v>
+      </c>
+      <c r="K11" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" s="4" customFormat="1">
       <c r="A12" s="3"/>
       <c r="B12" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="11">
+        <v>10</v>
+      </c>
+      <c r="D12" s="11">
+        <v>6</v>
+      </c>
+      <c r="E12" s="11">
+        <v>3</v>
+      </c>
+      <c r="F12" s="11">
+        <v>4</v>
+      </c>
+      <c r="G12" s="11">
+        <v>6</v>
+      </c>
+      <c r="H12" s="11">
+        <v>7</v>
+      </c>
+      <c r="I12" s="11">
+        <v>6</v>
+      </c>
+      <c r="J12" s="11">
+        <v>7</v>
+      </c>
+      <c r="K12" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" s="4" customFormat="1" ht="15" thickBot="1">
       <c r="A13" s="3"/>
       <c r="B13" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="K13"/>
-    </row>
-    <row r="14" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="4">
+        <v>10</v>
+      </c>
+      <c r="D13" s="11">
+        <v>7</v>
+      </c>
+      <c r="E13" s="11">
+        <v>7</v>
+      </c>
+      <c r="F13" s="11">
+        <v>1</v>
+      </c>
+      <c r="G13" s="11">
+        <v>2</v>
+      </c>
+      <c r="H13" s="11">
+        <v>5</v>
+      </c>
+      <c r="I13" s="11">
+        <v>5</v>
+      </c>
+      <c r="J13" s="11">
+        <v>8</v>
+      </c>
+      <c r="K13" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" s="2" customFormat="1">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="2">
+        <v>7</v>
+      </c>
+      <c r="D14" s="2">
+        <v>5</v>
+      </c>
+      <c r="E14" s="2">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2">
+        <v>7</v>
+      </c>
+      <c r="G14" s="2">
+        <v>4</v>
+      </c>
+      <c r="H14" s="2">
+        <v>4</v>
+      </c>
+      <c r="I14" s="2">
+        <v>9</v>
+      </c>
+      <c r="J14" s="2">
+        <v>10</v>
+      </c>
+      <c r="K14" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" s="4" customFormat="1">
       <c r="A15" s="3"/>
       <c r="B15" s="8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="11">
+        <v>10</v>
+      </c>
+      <c r="D15" s="11">
+        <v>7</v>
+      </c>
+      <c r="E15" s="11">
+        <v>9</v>
+      </c>
+      <c r="F15" s="11">
+        <v>3</v>
+      </c>
+      <c r="G15" s="11">
+        <v>6</v>
+      </c>
+      <c r="H15" s="11">
+        <v>2</v>
+      </c>
+      <c r="I15" s="11">
+        <v>9</v>
+      </c>
+      <c r="J15" s="11">
+        <v>9</v>
+      </c>
+      <c r="K15" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" s="4" customFormat="1">
       <c r="A16" s="3"/>
       <c r="B16" s="8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="11">
+        <v>10</v>
+      </c>
+      <c r="D16" s="11">
+        <v>5</v>
+      </c>
+      <c r="E16" s="11">
+        <v>8</v>
+      </c>
+      <c r="F16" s="11">
+        <v>4</v>
+      </c>
+      <c r="G16" s="11">
+        <v>5</v>
+      </c>
+      <c r="H16" s="11">
+        <v>4</v>
+      </c>
+      <c r="I16" s="11">
+        <v>8</v>
+      </c>
+      <c r="J16" s="11">
+        <v>9</v>
+      </c>
+      <c r="K16" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" s="4" customFormat="1">
       <c r="A17" s="3"/>
       <c r="B17" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="11">
+        <v>10</v>
+      </c>
+      <c r="D17" s="11">
+        <v>3</v>
+      </c>
+      <c r="E17" s="11">
+        <v>8</v>
+      </c>
+      <c r="F17" s="11">
+        <v>10</v>
+      </c>
+      <c r="G17" s="11">
+        <v>2</v>
+      </c>
+      <c r="H17" s="11">
+        <v>2</v>
+      </c>
+      <c r="I17" s="11">
+        <v>6</v>
+      </c>
+      <c r="J17" s="11">
+        <v>10</v>
+      </c>
+      <c r="K17" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" s="4" customFormat="1">
       <c r="A18" s="3"/>
       <c r="B18" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="11">
+        <v>10</v>
+      </c>
+      <c r="D18" s="11">
+        <v>8</v>
+      </c>
+      <c r="E18" s="11">
+        <v>8</v>
+      </c>
+      <c r="F18" s="11">
+        <v>4</v>
+      </c>
+      <c r="G18" s="11">
+        <v>8</v>
+      </c>
+      <c r="H18" s="11">
+        <v>1</v>
+      </c>
+      <c r="I18" s="11">
+        <v>9</v>
+      </c>
+      <c r="J18" s="11">
+        <v>10</v>
+      </c>
+      <c r="K18" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" s="6" customFormat="1" ht="15" thickBot="1">
       <c r="A19" s="5"/>
       <c r="B19" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="6">
+        <v>6</v>
+      </c>
+      <c r="D19" s="6">
+        <v>6</v>
+      </c>
+      <c r="E19" s="6">
+        <v>8</v>
+      </c>
+      <c r="F19" s="6">
+        <v>5</v>
+      </c>
+      <c r="G19" s="6">
+        <v>6</v>
+      </c>
+      <c r="H19" s="6">
+        <v>2</v>
+      </c>
+      <c r="I19" s="6">
+        <v>5</v>
+      </c>
+      <c r="J19" s="6">
+        <v>10</v>
+      </c>
+      <c r="K19" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" s="2" customFormat="1">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="2">
+        <v>8</v>
+      </c>
+      <c r="D20" s="2">
+        <v>7</v>
+      </c>
+      <c r="E20" s="2">
+        <v>7</v>
+      </c>
+      <c r="F20" s="2">
+        <v>4</v>
+      </c>
+      <c r="G20" s="2">
+        <v>4</v>
+      </c>
+      <c r="H20" s="2">
+        <v>4</v>
+      </c>
+      <c r="I20" s="2">
+        <v>8</v>
+      </c>
+      <c r="J20" s="2">
+        <v>2</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" s="4" customFormat="1">
       <c r="A21" s="3"/>
       <c r="B21" s="8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="11">
+        <v>4</v>
+      </c>
+      <c r="D21" s="11">
+        <v>2</v>
+      </c>
+      <c r="E21" s="11">
+        <v>2</v>
+      </c>
+      <c r="F21" s="11">
+        <v>1</v>
+      </c>
+      <c r="G21" s="11">
+        <v>1</v>
+      </c>
+      <c r="H21" s="11">
+        <v>6</v>
+      </c>
+      <c r="I21" s="11">
+        <v>9</v>
+      </c>
+      <c r="J21" s="11">
+        <v>3</v>
+      </c>
+      <c r="K21" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" s="4" customFormat="1">
       <c r="A22" s="3"/>
       <c r="B22" s="8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="11">
+        <v>8</v>
+      </c>
+      <c r="D22" s="11">
+        <v>3</v>
+      </c>
+      <c r="E22" s="11">
+        <v>2</v>
+      </c>
+      <c r="F22" s="11">
+        <v>2</v>
+      </c>
+      <c r="G22" s="11">
+        <v>1</v>
+      </c>
+      <c r="H22" s="11">
+        <v>4</v>
+      </c>
+      <c r="I22" s="11">
+        <v>8</v>
+      </c>
+      <c r="J22" s="11">
+        <v>8</v>
+      </c>
+      <c r="K22" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" s="4" customFormat="1">
       <c r="A23" s="3"/>
       <c r="B23" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="11">
+        <v>3</v>
+      </c>
+      <c r="D23" s="11">
+        <v>4</v>
+      </c>
+      <c r="E23" s="11">
+        <v>5</v>
+      </c>
+      <c r="F23" s="11">
+        <v>1</v>
+      </c>
+      <c r="G23" s="11">
+        <v>1</v>
+      </c>
+      <c r="H23" s="11">
+        <v>7</v>
+      </c>
+      <c r="I23" s="11">
+        <v>10</v>
+      </c>
+      <c r="J23" s="11">
+        <v>4</v>
+      </c>
+      <c r="K23" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" s="4" customFormat="1">
       <c r="A24" s="3"/>
       <c r="B24" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:24" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="11">
+        <v>5</v>
+      </c>
+      <c r="D24" s="11">
+        <v>5</v>
+      </c>
+      <c r="E24" s="11">
+        <v>4</v>
+      </c>
+      <c r="F24" s="11">
+        <v>2</v>
+      </c>
+      <c r="G24" s="11">
+        <v>5</v>
+      </c>
+      <c r="H24" s="11">
+        <v>5</v>
+      </c>
+      <c r="I24" s="11">
+        <v>8</v>
+      </c>
+      <c r="J24" s="11">
+        <v>5</v>
+      </c>
+      <c r="K24" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" s="6" customFormat="1" ht="15" thickBot="1">
       <c r="A25" s="5"/>
       <c r="B25" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C26" t="e">
+      <c r="C25" s="6">
+        <v>5</v>
+      </c>
+      <c r="D25" s="6">
+        <v>4</v>
+      </c>
+      <c r="E25" s="6">
+        <v>4</v>
+      </c>
+      <c r="F25" s="6">
+        <v>2</v>
+      </c>
+      <c r="G25" s="6">
+        <v>2</v>
+      </c>
+      <c r="H25" s="6">
+        <v>4</v>
+      </c>
+      <c r="I25" s="6">
+        <v>8</v>
+      </c>
+      <c r="J25" s="6">
+        <v>8</v>
+      </c>
+      <c r="K25" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
+      <c r="C26">
         <f>AVERAGE(C2:C7)+AVERAGE(C8:C13)+AVERAGE(C14:C19)+AVERAGE(C20:C25)</f>
+        <v>28.666666666666668</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ref="D26:X26" si="0">AVERAGE(D2:D7)+AVERAGE(D8:D13)+AVERAGE(D14:D19)+AVERAGE(D20:D25)</f>
+        <v>19.333333333333336</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>23.666666666666668</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>15.666666666666666</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>30.166666666666668</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>27.5</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="0"/>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="L26" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D26" t="e">
-        <f t="shared" ref="D26:X26" si="0">AVERAGE(D2:D7)+AVERAGE(D8:D13)+AVERAGE(D14:D19)+AVERAGE(D20:D25)</f>
+      <c r="M26" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E26" t="e">
+      <c r="N26" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F26" t="e">
+      <c r="O26" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" t="e">
+      <c r="P26" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" t="e">
+      <c r="Q26" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" t="e">
+      <c r="R26" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J26" t="e">
+      <c r="S26" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K26" t="e">
+      <c r="T26" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L26" t="e">
+      <c r="U26" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M26" t="e">
+      <c r="V26" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N26" t="e">
+      <c r="W26" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O26" t="e">
+      <c r="X26" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P26" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q26" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R26" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S26" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T26" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U26" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V26" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W26" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X26" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:24">
       <c r="C28" s="10" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -930,9 +1589,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -942,8 +1606,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>